--- a/matriz.xlsx
+++ b/matriz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afigu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afigu\Desktop\Alexis Code y prepa\Codellege\Equipo4\ProyectoE4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44A6E457-9DC3-4BD9-97B8-EA255D1D720C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AB379C-FAA0-4C66-91C9-1144A2E8DD84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F7F6AC93-28C8-4032-875B-01A30FF17AB3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
   <si>
     <t>IDENTIFICADOR</t>
   </si>
@@ -330,6 +330,21 @@
     <t xml:space="preserve">1.- pasar el mause sobre la barra en la palabra eventos
 2.- dar click izquierdo 
 </t>
+  </si>
+  <si>
+    <t>Manda a la pagina oficial de Facebook</t>
+  </si>
+  <si>
+    <t>Manda a la pagina oficial de Instagram</t>
+  </si>
+  <si>
+    <t>Manda a la pagina oficial de Twitter</t>
+  </si>
+  <si>
+    <t>Muestra la parte de pie de pagina y contactanos</t>
+  </si>
+  <si>
+    <t>Correcto</t>
   </si>
 </sst>
 </file>
@@ -352,12 +367,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -372,13 +399,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,6 +415,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A98D2C6-699C-4552-9DE2-58505815AE21}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,411 +751,461 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="6" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>52</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>58</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>50</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>49</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="84" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+      <c r="F16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="48" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+      <c r="F17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="48" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+      <c r="F18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1131,21 +1214,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007910258C8DD6FB48A520E68E0F9AE0E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5049ab934dd8ff4051557786902da610">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ac174274-3014-4866-8249-91a1d4979115" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0dd0a0d57006d2b6b2cd2c688e48da01" ns3:_="">
     <xsd:import namespace="ac174274-3014-4866-8249-91a1d4979115"/>
@@ -1277,31 +1345,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B937D1F-B05F-48DB-874D-FF706E3D8096}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ac174274-3014-4866-8249-91a1d4979115"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373A6BDD-CF12-4A37-97C8-35D943C6AC3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6536F8-0B05-47A3-8A91-991757F76FE8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1317,4 +1376,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373A6BDD-CF12-4A37-97C8-35D943C6AC3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B937D1F-B05F-48DB-874D-FF706E3D8096}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ac174274-3014-4866-8249-91a1d4979115"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/matriz.xlsx
+++ b/matriz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afigu\Desktop\Alexis Code y prepa\Codellege\Equipo4\ProyectoE4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afigu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AB379C-FAA0-4C66-91C9-1144A2E8DD84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13A92F6-4ABE-42BC-9669-E1321D666E0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F7F6AC93-28C8-4032-875B-01A30FF17AB3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t>IDENTIFICADOR</t>
   </si>
@@ -48,10 +48,6 @@
     <t>PRFNL-001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.- Ingresar a la página incial
-</t>
-  </si>
-  <si>
     <t>PRFNL-002</t>
   </si>
   <si>
@@ -73,16 +69,9 @@
     <t>PRFNL-011</t>
   </si>
   <si>
-    <t>1.- Ingresar a la página incial
-2.- Tener nombre de usuario y contraseña</t>
-  </si>
-  <si>
     <t>PRFNL-012</t>
   </si>
   <si>
-    <t>1.- Ingresar a la página incial</t>
-  </si>
-  <si>
     <t>PRFNL-013</t>
   </si>
   <si>
@@ -95,10 +84,6 @@
     <t>Cerrar sesión</t>
   </si>
   <si>
-    <t>1.- Ingresar a la página incial
-2. Haber ingresado sesión</t>
-  </si>
-  <si>
     <t>PRFNL-015</t>
   </si>
   <si>
@@ -111,33 +96,10 @@
     <t>Enviar comentario</t>
   </si>
   <si>
-    <t>1.- Ingresar a la página incial
-2.- Ir hasta el final de la pagina</t>
-  </si>
-  <si>
-    <t>PRFNL-018</t>
-  </si>
-  <si>
     <t>Enviar comentario sin datos</t>
   </si>
   <si>
-    <t>PRFNL-019</t>
-  </si>
-  <si>
     <t>Pie de página</t>
-  </si>
-  <si>
-    <t>PRFNL-020</t>
-  </si>
-  <si>
-    <t>PRFNL-021</t>
-  </si>
-  <si>
-    <t>PRFNL-022</t>
-  </si>
-  <si>
-    <t>Barra de navegación 
-- *Logo* -</t>
   </si>
   <si>
     <t>Barra de navegación
@@ -197,9 +159,6 @@
     <t xml:space="preserve">Manda a la ventana inicio </t>
   </si>
   <si>
-    <t>Manda a la ventana de inicio</t>
-  </si>
-  <si>
     <t>Ingresar Login</t>
   </si>
   <si>
@@ -220,24 +179,6 @@
   <si>
     <t xml:space="preserve">1.- pasar el mause sobre la  palabra cerrar cesión
 2.- dar click izquierdo </t>
-  </si>
-  <si>
-    <t>1.- pasar el mause sobre la  palabra contraseña
-2.- dar click izquierdo 
-3.- Ingresar dato
-4.- Dar click izquierdo en aceptar</t>
-  </si>
-  <si>
-    <t>1.- pasar el mause sobre la palabra usuario
-2.- dar click izquierdo 
-3.- Ingresar dato
-4.- Dar click izquierdo en aceptar</t>
-  </si>
-  <si>
-    <t>1.- pasar el mause sobre la palabra login
-2.- dar click izquierdo 
-3.- Ingresar datos (contraseña y usuario)
-4.- Dar click izquierdo en aceptar</t>
   </si>
   <si>
     <t xml:space="preserve">1.- pasar el mause sobre el usuario
@@ -297,11 +238,6 @@
     <t>Se vea el contactanos a final de pagina</t>
   </si>
   <si>
-    <t xml:space="preserve">1.- pasar el mause sobre la  barra en el logo de la institucion
-2.- dar click izquierdo en el logo
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.- pasar el mause sobre la barra en la palabra inicio
 2.- dar click izquierdo 
 </t>
@@ -344,14 +280,68 @@
     <t>Muestra la parte de pie de pagina y contactanos</t>
   </si>
   <si>
-    <t>Correcto</t>
+    <t>PRFNL-008</t>
+  </si>
+  <si>
+    <t>PRFNL-009</t>
+  </si>
+  <si>
+    <t>PRFNL-010</t>
+  </si>
+  <si>
+    <t>PRFNL-016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.- Acceso a la pagina inicial del proyecto
+</t>
+  </si>
+  <si>
+    <t>1.-Acceso a la pagina inicial del proyecto</t>
+  </si>
+  <si>
+    <t>1.- Acceso a la pagina principal del proyecto
+2.- Tener nombre de usuario y contraseña correctos</t>
+  </si>
+  <si>
+    <t>1.- pasar el mause sobre la palabra login
+2.- dar click izquierdo 
+3.- Ingresar datos (contraseña y usuario correctos)
+4.- Dar click izquierdo en aceptar</t>
+  </si>
+  <si>
+    <t>1.- pasar el mause sobre la palabra usuario
+2.- dar click izquierdo 
+3.- Ingresar usuario incorrecto
+4.- Dar click izquierdo en aceptar</t>
+  </si>
+  <si>
+    <t>1.- pasar el mause sobre la  palabra contraseña
+2.- dar click izquierdo 
+3.- Ingresar contraseña incorrecta
+4.- Dar click izquierdo en aceptar</t>
+  </si>
+  <si>
+    <t>1.- Acceso a la pagina inical del proyecto
+2. Haber ingresado sesión</t>
+  </si>
+  <si>
+    <t>1.- Acceso a la pagina principal del proyecto
+2. Haber ingresado sesión</t>
+  </si>
+  <si>
+    <t>1.-Acceso a la pagina principal del proyecto
+2.- Ir hasta el final de la pagina</t>
+  </si>
+  <si>
+    <t>1.-Acceso a la pagina inicial del proyecto
+2.- Ir hasta el final de la pagina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,8 +356,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,18 +372,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -395,11 +385,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -416,13 +491,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -739,18 +832,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A98D2C6-699C-4552-9DE2-58505815AE21}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:G15"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -769,397 +860,365 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" ht="96" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="84" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="E18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="11"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1167,7 +1226,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1175,7 +1234,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -1183,7 +1242,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1191,7 +1250,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -1199,21 +1258,23 @@
       <c r="E24" s="4"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
-    </row>
   </sheetData>
   <dataConsolidate/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007910258C8DD6FB48A520E68E0F9AE0E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5049ab934dd8ff4051557786902da610">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ac174274-3014-4866-8249-91a1d4979115" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0dd0a0d57006d2b6b2cd2c688e48da01" ns3:_="">
     <xsd:import namespace="ac174274-3014-4866-8249-91a1d4979115"/>
@@ -1345,15 +1406,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1361,6 +1413,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373A6BDD-CF12-4A37-97C8-35D943C6AC3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E6536F8-0B05-47A3-8A91-991757F76FE8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1374,14 +1434,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373A6BDD-CF12-4A37-97C8-35D943C6AC3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
